--- a/Results and Graphs/rators_vs_gpt_new.xlsx
+++ b/Results and Graphs/rators_vs_gpt_new.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagitbenshoshan/Documents/Wellesley/Wellesely/Results and Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE7F6D2-679E-6040-827E-34B34645CCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E2415B-7400-B340-9F71-481A035183C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{BE5A8F84-FC19-2E4C-AB17-3586BDC5AD8D}"/>
+    <workbookView xWindow="15960" yWindow="-21100" windowWidth="34560" windowHeight="19940" xr2:uid="{BE5A8F84-FC19-2E4C-AB17-3586BDC5AD8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,13 +114,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,17 +146,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,435 +467,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA903EC-45B7-DA46-9014-80B930D3675C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1F063E-EA1D-5F49-85FF-8EA142A48253}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3">
+        <f>100*(C2/SUM($C$2:$C$14))</f>
+        <v>5.2910052910052914E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <f>100*(E2/SUM($E$2:$E$14))</f>
+        <v>6.6220780080789351E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <f>100*(G2/SUM($G$2:$G$14))</f>
+        <v>7.4699335175916941E-3</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3.09</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="G3" s="1">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.6900000000000004</v>
+      <c r="C3" s="4">
+        <v>258</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D14" si="0">100*(C3/SUM($C$2:$C$14))</f>
+        <v>0.6500377928949358</v>
+      </c>
+      <c r="E3" s="4">
+        <v>96</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F14" si="1">100*(E3/SUM($E$2:$E$14))</f>
+        <v>0.21190649625852592</v>
+      </c>
+      <c r="G3" s="4">
+        <v>528</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H14" si="2">100*(G3/SUM($G$2:$G$14))</f>
+        <v>1.3147082990961381</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="C4" s="4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0702947845804988E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9732468048473614E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9759468140733553E-2</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.83</v>
-      </c>
-      <c r="G5" s="1">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.8099999999999996</v>
+      <c r="C5" s="4">
+        <v>1314</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3106575963718821</v>
+      </c>
+      <c r="E5" s="4">
+        <v>798</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7614727501489968</v>
+      </c>
+      <c r="G5" s="4">
+        <v>996</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4800179278404424</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="E6" s="1">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.67</v>
-      </c>
-      <c r="G6" s="1">
-        <v>78</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9.6300000000000008</v>
+      <c r="C6" s="4">
+        <v>1917</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8299319727891161</v>
+      </c>
+      <c r="E6" s="4">
+        <v>990</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1852857426660486</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1890</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>4.706058116082767</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3.58</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.12</v>
+      <c r="C7" s="4">
+        <v>1179</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9705215419501134</v>
+      </c>
+      <c r="E7" s="4">
+        <v>531</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1721078074299716</v>
+      </c>
+      <c r="G7" s="4">
+        <v>756</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8824232464331065</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
-        <v>198</v>
-      </c>
-      <c r="D8" s="7">
-        <v>24.44</v>
-      </c>
-      <c r="E8" s="1">
-        <v>97</v>
-      </c>
-      <c r="F8" s="1">
-        <v>11.98</v>
-      </c>
-      <c r="G8" s="1">
-        <v>79</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9.75</v>
+      <c r="C8" s="4">
+        <v>6543</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>16.485260770975056</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2916</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4366598238527253</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6462</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>16.090236796892508</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>77</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9.51</v>
-      </c>
-      <c r="E9" s="1">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7.41</v>
-      </c>
-      <c r="G9" s="1">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5.56</v>
+      <c r="C9" s="4">
+        <v>4008</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>10.098261526832955</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3228</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1253559366929338</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3264</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1272876671397629</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5.56</v>
-      </c>
-      <c r="E10" s="1">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5.19</v>
+      <c r="C10" s="4">
+        <v>3756</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4633408919123205</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2904</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4101715118204092</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3564</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8742810188989321</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>229</v>
-      </c>
-      <c r="D11" s="7">
-        <v>28.27</v>
-      </c>
-      <c r="E11" s="1">
-        <v>226</v>
-      </c>
-      <c r="F11" s="1">
-        <v>27.9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>326</v>
-      </c>
-      <c r="H11" s="1">
-        <v>40.25</v>
+      <c r="C11" s="4">
+        <v>13788</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>34.739229024943313</v>
+      </c>
+      <c r="E11" s="4">
+        <v>11304</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>24.951989934441425</v>
+      </c>
+      <c r="G11" s="4">
+        <v>14904</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>37.110629715395532</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="1">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7.28</v>
-      </c>
-      <c r="G12" s="1">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2.35</v>
+      <c r="C12" s="4">
+        <v>1920</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8374905517762663</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4845</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>10.694655983047479</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2220</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5277508030178533</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.83</v>
-      </c>
-      <c r="G13" s="1">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5.8</v>
+      <c r="C13" s="4">
+        <v>990</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4943310657596371</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3180</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0194026885636713</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1965</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8928064540225593</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:9" ht="17" customHeight="1">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
-        <v>60</v>
-      </c>
-      <c r="D14" s="7">
-        <v>7.41</v>
-      </c>
-      <c r="E14" s="1">
-        <v>186</v>
-      </c>
-      <c r="F14" s="1">
-        <v>22.96</v>
-      </c>
-      <c r="G14" s="1">
-        <v>96</v>
-      </c>
-      <c r="H14" s="1">
-        <v>11.85</v>
+      <c r="C14" s="4">
+        <v>3960</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9773242630385486</v>
+      </c>
+      <c r="E14" s="4">
+        <v>14490</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>31.984636779021258</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3585</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9265705535220743</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="3">
         <f>100*(C15/108)</f>
         <v>9.2592592592592595</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <f>100*(E15/108)</f>
         <v>3.7037037037037033</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>9</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f>100*(G15/108)</f>
         <v>8.3333333333333321</v>
       </c>
@@ -895,71 +959,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" ref="D16:D30" si="0">100*(C16/108)</f>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D29" si="3">100*(C16/108)</f>
         <v>3.7037037037037033</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16:F29" si="1">100*(E16/108)</f>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F29" si="4">100*(E16/108)</f>
         <v>1.8518518518518516</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" ref="H16:H29" si="2">100*(G16/108)</f>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" ref="H16:H29" si="5">100*(G16/108)</f>
         <v>1.8518518518518516</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>21</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" si="0"/>
+      <c r="D17" s="3">
+        <f t="shared" si="3"/>
         <v>19.444444444444446</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>12</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>16</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" si="2"/>
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
         <v>14.814814814814813</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -969,29 +1033,29 @@
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
+      <c r="D18" s="3">
+        <f t="shared" si="3"/>
         <v>6.481481481481481</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
+      <c r="F18" s="3">
+        <f t="shared" si="4"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="G18" s="1">
         <v>8</v>
       </c>
-      <c r="H18" s="4">
-        <f t="shared" si="2"/>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
         <v>7.4074074074074066</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1001,29 +1065,29 @@
       <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="8">
-        <f t="shared" si="0"/>
+      <c r="D19" s="3">
+        <f t="shared" si="3"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
+      <c r="F19" s="3">
+        <f t="shared" si="4"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="G19" s="1">
         <v>6</v>
       </c>
-      <c r="H19" s="4">
-        <f t="shared" si="2"/>
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1033,29 +1097,29 @@
       <c r="C20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="0"/>
+      <c r="D20" s="3">
+        <f t="shared" si="3"/>
         <v>16.666666666666664</v>
       </c>
       <c r="E20" s="1">
         <v>13</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
+      <c r="F20" s="3">
+        <f t="shared" si="4"/>
         <v>12.037037037037036</v>
       </c>
       <c r="G20" s="1">
         <v>19</v>
       </c>
-      <c r="H20" s="4">
-        <f t="shared" si="2"/>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
         <v>17.592592592592592</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1065,29 +1129,29 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="8">
-        <f t="shared" si="0"/>
+      <c r="D21" s="3">
+        <f t="shared" si="3"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="1"/>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="2"/>
+      <c r="H21" s="3">
+        <f t="shared" si="5"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -1097,29 +1161,29 @@
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="0"/>
+      <c r="D22" s="3">
+        <f t="shared" si="3"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="1"/>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="2"/>
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1129,29 +1193,29 @@
       <c r="C23" s="1">
         <v>16</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" si="0"/>
+      <c r="D23" s="3">
+        <f t="shared" si="3"/>
         <v>14.814814814814813</v>
       </c>
       <c r="E23" s="1">
         <v>17</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="1"/>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
         <v>15.74074074074074</v>
       </c>
       <c r="G23" s="1">
         <v>21</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="2"/>
+      <c r="H23" s="3">
+        <f t="shared" si="5"/>
         <v>19.444444444444446</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1161,29 +1225,29 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="0"/>
+      <c r="D24" s="3">
+        <f t="shared" si="3"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="E24" s="1">
         <v>8</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="1"/>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
         <v>7.4074074074074066</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" si="2"/>
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -1193,29 +1257,29 @@
       <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="8">
-        <f t="shared" si="0"/>
+      <c r="D25" s="3">
+        <f t="shared" si="3"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="1"/>
+      <c r="F25" s="3">
+        <f t="shared" si="4"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="2"/>
+      <c r="H25" s="3">
+        <f t="shared" si="5"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -1225,29 +1289,29 @@
       <c r="C26" s="1">
         <v>17</v>
       </c>
-      <c r="D26" s="8">
-        <f t="shared" si="0"/>
+      <c r="D26" s="3">
+        <f t="shared" si="3"/>
         <v>15.74074074074074</v>
       </c>
       <c r="E26" s="1">
         <v>23</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="1"/>
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
         <v>21.296296296296298</v>
       </c>
       <c r="G26" s="1">
         <v>16</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" si="2"/>
+      <c r="H26" s="3">
+        <f t="shared" si="5"/>
         <v>14.814814814814813</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1255,27 +1319,27 @@
         <v>11</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
+      <c r="D27" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="1"/>
+      <c r="F27" s="3">
+        <f t="shared" si="4"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="4">
-        <f t="shared" si="2"/>
+      <c r="H27" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -1283,27 +1347,27 @@
         <v>12</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
+      <c r="D28" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="1"/>
+      <c r="F28" s="3">
+        <f t="shared" si="4"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="4">
-        <f t="shared" si="2"/>
+      <c r="H28" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -1311,27 +1375,27 @@
         <v>9</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="6">
-        <f t="shared" si="0"/>
+      <c r="D29" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="4">
-        <f t="shared" si="1"/>
+      <c r="F29" s="3">
+        <f t="shared" si="4"/>
         <v>6.481481481481481</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="4">
-        <f t="shared" si="2"/>
+      <c r="H29" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1341,21 +1405,21 @@
       <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="3">
         <f>100*(C30/162)</f>
         <v>1.8518518518518516</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f>100*(E30/162)</f>
         <v>1.2345679012345678</v>
       </c>
       <c r="G30" s="1">
         <v>9</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f>100*(G30/162)</f>
         <v>5.5555555555555554</v>
       </c>
@@ -1363,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1373,29 +1437,29 @@
       <c r="C31" s="1">
         <v>13</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" ref="D31:F43" si="3">100*(C31/162)</f>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:F43" si="6">100*(C31/162)</f>
         <v>8.0246913580246915</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="3"/>
+      <c r="F31" s="3">
+        <f t="shared" si="6"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="G31" s="1">
         <v>7</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" ref="H31" si="4">100*(G31/162)</f>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31:H43" si="7">100*(G31/162)</f>
         <v>4.3209876543209873</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1405,29 +1469,29 @@
       <c r="C32" s="1">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="3"/>
+      <c r="D32" s="3">
+        <f t="shared" si="6"/>
         <v>6.1728395061728394</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="3"/>
+      <c r="F32" s="3">
+        <f t="shared" si="6"/>
         <v>2.4691358024691357</v>
       </c>
       <c r="G32" s="1">
         <v>9</v>
       </c>
-      <c r="H32" s="4">
-        <f t="shared" ref="H32" si="5">100*(G32/162)</f>
+      <c r="H32" s="3">
+        <f t="shared" si="7"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1437,26 +1501,26 @@
       <c r="C33" s="1">
         <v>4</v>
       </c>
-      <c r="D33" s="8">
-        <f t="shared" si="3"/>
+      <c r="D33" s="3">
+        <f t="shared" si="6"/>
         <v>2.4691358024691357</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="3"/>
+      <c r="F33" s="3">
+        <f t="shared" si="6"/>
         <v>1.2345679012345678</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" ref="H33" si="6">100*(G33/162)</f>
+      <c r="H33" s="3">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1466,29 +1530,29 @@
       <c r="C34" s="1">
         <v>17</v>
       </c>
-      <c r="D34" s="8">
-        <f t="shared" si="3"/>
+      <c r="D34" s="3">
+        <f t="shared" si="6"/>
         <v>10.493827160493826</v>
       </c>
       <c r="E34" s="1">
         <v>11</v>
       </c>
-      <c r="F34" s="4">
-        <f t="shared" si="3"/>
+      <c r="F34" s="3">
+        <f t="shared" si="6"/>
         <v>6.7901234567901234</v>
       </c>
       <c r="G34" s="1">
         <v>25</v>
       </c>
-      <c r="H34" s="4">
-        <f t="shared" ref="H34" si="7">100*(G34/162)</f>
+      <c r="H34" s="3">
+        <f t="shared" si="7"/>
         <v>15.432098765432098</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -1498,29 +1562,29 @@
       <c r="C35" s="1">
         <v>17</v>
       </c>
-      <c r="D35" s="8">
-        <f t="shared" si="3"/>
+      <c r="D35" s="3">
+        <f t="shared" si="6"/>
         <v>10.493827160493826</v>
       </c>
       <c r="E35" s="1">
         <v>16</v>
       </c>
-      <c r="F35" s="4">
-        <f t="shared" si="3"/>
+      <c r="F35" s="3">
+        <f t="shared" si="6"/>
         <v>9.8765432098765427</v>
       </c>
       <c r="G35" s="1">
         <v>12</v>
       </c>
-      <c r="H35" s="4">
-        <f t="shared" ref="H35" si="8">100*(G35/162)</f>
+      <c r="H35" s="3">
+        <f t="shared" si="7"/>
         <v>7.4074074074074066</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -1530,29 +1594,29 @@
       <c r="C36" s="1">
         <v>10</v>
       </c>
-      <c r="D36" s="8">
-        <f t="shared" si="3"/>
+      <c r="D36" s="3">
+        <f t="shared" si="6"/>
         <v>6.1728395061728394</v>
       </c>
       <c r="E36" s="1">
         <v>12</v>
       </c>
-      <c r="F36" s="4">
-        <f t="shared" si="3"/>
+      <c r="F36" s="3">
+        <f t="shared" si="6"/>
         <v>7.4074074074074066</v>
       </c>
       <c r="G36" s="1">
         <v>9</v>
       </c>
-      <c r="H36" s="4">
-        <f t="shared" ref="H36" si="9">100*(G36/162)</f>
+      <c r="H36" s="3">
+        <f t="shared" si="7"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -1562,29 +1626,29 @@
       <c r="C37" s="1">
         <v>43</v>
       </c>
-      <c r="D37" s="8">
-        <f t="shared" si="3"/>
+      <c r="D37" s="3">
+        <f t="shared" si="6"/>
         <v>26.543209876543212</v>
       </c>
       <c r="E37" s="1">
         <v>45</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="3"/>
+      <c r="F37" s="3">
+        <f t="shared" si="6"/>
         <v>27.777777777777779</v>
       </c>
       <c r="G37" s="1">
         <v>39</v>
       </c>
-      <c r="H37" s="4">
-        <f t="shared" ref="H37" si="10">100*(G37/162)</f>
+      <c r="H37" s="3">
+        <f t="shared" si="7"/>
         <v>24.074074074074073</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -1594,29 +1658,29 @@
       <c r="C38" s="1">
         <v>5</v>
       </c>
-      <c r="D38" s="8">
-        <f t="shared" si="3"/>
+      <c r="D38" s="3">
+        <f t="shared" si="6"/>
         <v>3.0864197530864197</v>
       </c>
       <c r="E38" s="1">
         <v>12</v>
       </c>
-      <c r="F38" s="4">
-        <f t="shared" si="3"/>
+      <c r="F38" s="3">
+        <f t="shared" si="6"/>
         <v>7.4074074074074066</v>
       </c>
       <c r="G38" s="1">
         <v>4</v>
       </c>
-      <c r="H38" s="4">
-        <f t="shared" ref="H38" si="11">100*(G38/162)</f>
+      <c r="H38" s="3">
+        <f t="shared" si="7"/>
         <v>2.4691358024691357</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -1626,29 +1690,29 @@
       <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="8">
-        <f t="shared" si="3"/>
+      <c r="D39" s="3">
+        <f t="shared" si="6"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F39" s="4">
-        <f t="shared" si="3"/>
+      <c r="F39" s="3">
+        <f t="shared" si="6"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="G39" s="1">
         <v>7</v>
       </c>
-      <c r="H39" s="4">
-        <f t="shared" ref="H39" si="12">100*(G39/162)</f>
+      <c r="H39" s="3">
+        <f t="shared" si="7"/>
         <v>4.3209876543209873</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1658,29 +1722,29 @@
       <c r="C40" s="1">
         <v>24</v>
       </c>
-      <c r="D40" s="8">
-        <f t="shared" si="3"/>
+      <c r="D40" s="3">
+        <f t="shared" si="6"/>
         <v>14.814814814814813</v>
       </c>
       <c r="E40" s="1">
         <v>32</v>
       </c>
-      <c r="F40" s="4">
-        <f t="shared" si="3"/>
+      <c r="F40" s="3">
+        <f t="shared" si="6"/>
         <v>19.753086419753085</v>
       </c>
       <c r="G40" s="1">
         <v>30</v>
       </c>
-      <c r="H40" s="4">
-        <f t="shared" ref="H40" si="13">100*(G40/162)</f>
+      <c r="H40" s="3">
+        <f t="shared" si="7"/>
         <v>18.518518518518519</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1690,29 +1754,29 @@
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="8">
-        <f t="shared" si="3"/>
+      <c r="D41" s="3">
+        <f t="shared" si="6"/>
         <v>0.61728395061728392</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="4">
-        <f t="shared" si="3"/>
+      <c r="F41" s="3">
+        <f t="shared" si="6"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
       </c>
-      <c r="H41" s="4">
-        <f t="shared" ref="H41" si="14">100*(G41/162)</f>
+      <c r="H41" s="3">
+        <f t="shared" si="7"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1722,29 +1786,29 @@
       <c r="C42" s="1">
         <v>2</v>
       </c>
-      <c r="D42" s="8">
-        <f t="shared" si="3"/>
+      <c r="D42" s="3">
+        <f t="shared" si="6"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F42" s="4">
-        <f t="shared" si="3"/>
+      <c r="F42" s="3">
+        <f t="shared" si="6"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="G42" s="1">
         <v>2</v>
       </c>
-      <c r="H42" s="4">
-        <f t="shared" ref="H42" si="15">100*(G42/162)</f>
+      <c r="H42" s="3">
+        <f t="shared" si="7"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -1754,29 +1818,29 @@
       <c r="C43" s="1">
         <v>11</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" si="3"/>
+      <c r="D43" s="3">
+        <f t="shared" si="6"/>
         <v>6.7901234567901234</v>
       </c>
       <c r="E43" s="1">
         <v>14</v>
       </c>
-      <c r="F43" s="4">
-        <f t="shared" si="3"/>
+      <c r="F43" s="3">
+        <f t="shared" si="6"/>
         <v>8.6419753086419746</v>
       </c>
       <c r="G43" s="1">
         <v>7</v>
       </c>
-      <c r="H43" s="4">
-        <f t="shared" ref="H43" si="16">100*(G43/162)</f>
+      <c r="H43" s="3">
+        <f t="shared" si="7"/>
         <v>4.3209876543209873</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="C44" s="1"/>
     </row>
   </sheetData>
